--- a/Group29/2D/CP_viscous_data.xlsx
+++ b/Group29/2D/CP_viscous_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9cb712504faedb2e/Documenten/TU Delft/year 2/Wind tunnel test/2D files Numerical Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1560A36-73BD-4F8F-8D91-F52BEA962069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{D1560A36-73BD-4F8F-8D91-F52BEA962069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADB72D86-C94F-4910-A2BF-D6C9E9DABDA6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4B07A3BD-B10E-4906-B1FE-4B3203F54C25}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>X</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>NACA 642A015-Re=  700000-Alpha= 8.00</t>
+  </si>
+  <si>
+    <t>NACA 642A015-Re=  700000-Alpha=12.00</t>
   </si>
 </sst>
 </file>
@@ -397,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6DB9C01-8282-4E84-BA54-C5EC1811177B}">
-  <dimension ref="A1:D142"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
@@ -408,9 +411,10 @@
     <col min="2" max="2" width="35.44140625" customWidth="1"/>
     <col min="3" max="3" width="38.33203125" customWidth="1"/>
     <col min="4" max="4" width="35.21875" customWidth="1"/>
+    <col min="5" max="5" width="34.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,8 +427,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -437,8 +444,11 @@
       <c r="D2">
         <v>0.17082040000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>-4.9601669999999997E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.98797599999999997</v>
       </c>
@@ -451,8 +461,11 @@
       <c r="D3">
         <v>0.16195490000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>-4.0467050000000003E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.96885200000000005</v>
       </c>
@@ -465,8 +478,11 @@
       <c r="D4">
         <v>0.1456287</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>-9.6094370000000002E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.948492</v>
       </c>
@@ -479,8 +495,11 @@
       <c r="D5">
         <v>0.12576309999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>-1.5490759999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.92712099999999997</v>
       </c>
@@ -493,8 +512,11 @@
       <c r="D6">
         <v>0.10251449999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>-2.1616819999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.90504600000000002</v>
       </c>
@@ -507,8 +529,11 @@
       <c r="D7">
         <v>7.6383560000000003E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>-2.7859760000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.88249999999999995</v>
       </c>
@@ -521,8 +546,11 @@
       <c r="D8">
         <v>4.7905179999999999E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>-3.4070959999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.85962099999999997</v>
       </c>
@@ -535,8 +563,11 @@
       <c r="D9">
         <v>1.754495E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>-4.0038009999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.83652099999999996</v>
       </c>
@@ -549,8 +580,11 @@
       <c r="D10">
         <v>-1.439413E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>-4.5339409999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.81330000000000002</v>
       </c>
@@ -563,8 +597,11 @@
       <c r="D11">
         <v>-4.7664829999999998E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>-4.9101510000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.79003100000000004</v>
       </c>
@@ -577,8 +614,11 @@
       <c r="D12">
         <v>-8.2354280000000002E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>-5.15761E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.76676800000000001</v>
       </c>
@@ -591,8 +631,11 @@
       <c r="D13">
         <v>-0.11864189999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>-6.4184930000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.74358400000000002</v>
       </c>
@@ -605,8 +648,11 @@
       <c r="D14">
         <v>-0.15688669999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>-8.357378E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.72056799999999999</v>
       </c>
@@ -619,8 +665,11 @@
       <c r="D15">
         <v>-0.1973606</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>-0.1095771</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.69776300000000002</v>
       </c>
@@ -633,8 +682,11 @@
       <c r="D16">
         <v>-0.2391131</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>-0.14201059999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.67515599999999998</v>
       </c>
@@ -647,8 +699,11 @@
       <c r="D17">
         <v>-0.28155059999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>-0.180344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.65271699999999999</v>
       </c>
@@ -661,8 +716,11 @@
       <c r="D18">
         <v>-0.32439889999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>-0.2238309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.63043400000000005</v>
       </c>
@@ -675,8 +733,11 @@
       <c r="D19">
         <v>-0.36753730000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>-0.27158470000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.60830200000000001</v>
       </c>
@@ -689,8 +750,11 @@
       <c r="D20">
         <v>-0.41103669999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>-0.32275039999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.58631100000000003</v>
       </c>
@@ -703,8 +767,11 @@
       <c r="D21">
         <v>-0.45462130000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>-0.3764093</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.56445299999999998</v>
       </c>
@@ -717,8 +784,11 @@
       <c r="D22">
         <v>-0.49835040000000003</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>-0.43190689999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.54273700000000002</v>
       </c>
@@ -731,8 +801,11 @@
       <c r="D23">
         <v>-0.54284869999999996</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>-0.48907339999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.52118600000000004</v>
       </c>
@@ -745,8 +818,11 @@
       <c r="D24">
         <v>-0.58821069999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>-0.54765050000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.49981700000000001</v>
       </c>
@@ -759,8 +835,11 @@
       <c r="D25">
         <v>-0.63390709999999995</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>-0.60708779999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.478626</v>
       </c>
@@ -773,8 +852,11 @@
       <c r="D26">
         <v>-0.6794443</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>-0.66687790000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.45761600000000002</v>
       </c>
@@ -787,8 +869,11 @@
       <c r="D27">
         <v>-0.72481180000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>-0.72683600000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.436807</v>
       </c>
@@ -801,8 +886,11 @@
       <c r="D28">
         <v>-0.76975099999999996</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>-0.7865875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0.416215</v>
       </c>
@@ -815,8 +903,11 @@
       <c r="D29">
         <v>-0.8123515</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>-0.84445219999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0.39577899999999999</v>
       </c>
@@ -829,8 +920,11 @@
       <c r="D30">
         <v>-0.84846869999999996</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>-0.89695270000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.37537900000000002</v>
       </c>
@@ -843,8 +937,11 @@
       <c r="D31">
         <v>-0.87452799999999997</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>-0.94100799999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0.35492899999999999</v>
       </c>
@@ -857,8 +954,11 @@
       <c r="D32">
         <v>-0.89630719999999997</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>-0.98107520000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0.33443499999999998</v>
       </c>
@@ -871,8 +971,11 @@
       <c r="D33">
         <v>-0.91755220000000004</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>-1.020581</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0.31397000000000003</v>
       </c>
@@ -885,8 +988,11 @@
       <c r="D34">
         <v>-0.93977279999999996</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <v>-1.0612220000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0.29362100000000002</v>
       </c>
@@ -899,8 +1005,11 @@
       <c r="D35">
         <v>-0.96357720000000002</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <v>-1.103891</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0.27347700000000003</v>
       </c>
@@ -913,8 +1022,11 @@
       <c r="D36">
         <v>-0.98953080000000004</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <v>-1.149397</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0.25364599999999998</v>
       </c>
@@ -927,8 +1039,11 @@
       <c r="D37">
         <v>-1.0179050000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <v>-1.198264</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0.23425000000000001</v>
       </c>
@@ -941,8 +1056,11 @@
       <c r="D38">
         <v>-1.049337</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <v>-1.2512920000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0.21543300000000001</v>
       </c>
@@ -955,8 +1073,11 @@
       <c r="D39">
         <v>-1.0827910000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <v>-1.3077369999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0.19735</v>
       </c>
@@ -969,8 +1090,11 @@
       <c r="D40">
         <v>-1.1181110000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <v>-1.3675360000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0.180145</v>
       </c>
@@ -983,8 +1107,11 @@
       <c r="D41">
         <v>-1.1551709999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <v>-1.4306430000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0.163935</v>
       </c>
@@ -997,8 +1124,11 @@
       <c r="D42">
         <v>-1.1936869999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <v>-1.4968870000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0.14879200000000001</v>
       </c>
@@ -1011,8 +1141,11 @@
       <c r="D43">
         <v>-1.2360120000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <v>-1.5686329999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0.134744</v>
       </c>
@@ -1025,8 +1158,11 @@
       <c r="D44">
         <v>-1.2826439999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <v>-1.646576</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0.12181699999999999</v>
       </c>
@@ -1039,8 +1175,11 @@
       <c r="D45">
         <v>-1.3313919999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <v>-1.7286589999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0.110023</v>
       </c>
@@ -1053,8 +1192,11 @@
       <c r="D46">
         <v>-1.380074</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <v>-1.812638</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>9.9329000000000001E-2</v>
       </c>
@@ -1067,8 +1209,11 @@
       <c r="D47">
         <v>-1.429648</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <v>-1.8993530000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>8.9654999999999999E-2</v>
       </c>
@@ -1081,8 +1226,11 @@
       <c r="D48">
         <v>-1.4801979999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <v>-1.9890490000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>8.0902000000000002E-2</v>
       </c>
@@ -1095,8 +1243,11 @@
       <c r="D49">
         <v>-1.5322370000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49">
+        <v>-2.082579</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>7.2964000000000001E-2</v>
       </c>
@@ -1109,8 +1260,11 @@
       <c r="D50">
         <v>-1.5891519999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50">
+        <v>-2.1837800000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>6.5739000000000006E-2</v>
       </c>
@@ -1123,8 +1277,11 @@
       <c r="D51">
         <v>-1.6505730000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51">
+        <v>-2.2930549999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>5.9140999999999999E-2</v>
       </c>
@@ -1137,8 +1294,11 @@
       <c r="D52">
         <v>-1.7157150000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52">
+        <v>-2.410415</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>5.3092E-2</v>
       </c>
@@ -1151,8 +1311,11 @@
       <c r="D53">
         <v>-1.778616</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53">
+        <v>-2.5311490000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>4.7523999999999997E-2</v>
       </c>
@@ -1165,8 +1328,11 @@
       <c r="D54">
         <v>-1.848319</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54">
+        <v>-2.665143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>4.2382000000000003E-2</v>
       </c>
@@ -1179,8 +1345,11 @@
       <c r="D55">
         <v>-1.914855</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55">
+        <v>-2.806343</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>3.7623999999999998E-2</v>
       </c>
@@ -1193,8 +1362,11 @@
       <c r="D56">
         <v>-1.980947</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56">
+        <v>-2.9538389999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>3.3210999999999997E-2</v>
       </c>
@@ -1207,8 +1379,11 @@
       <c r="D57">
         <v>-2.0810209999999998</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57">
+        <v>-3.1069390000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2.911E-2</v>
       </c>
@@ -1221,8 +1396,11 @@
       <c r="D58">
         <v>-2.3921899999999998</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58">
+        <v>-3.285625</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2.5291000000000001E-2</v>
       </c>
@@ -1235,8 +1413,11 @@
       <c r="D59">
         <v>-2.9158230000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59">
+        <v>-3.5525720000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2.1731E-2</v>
       </c>
@@ -1249,8 +1430,11 @@
       <c r="D60">
         <v>-2.970437</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E60">
+        <v>-4.0683720000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1.8419000000000001E-2</v>
       </c>
@@ -1263,8 +1447,11 @@
       <c r="D61">
         <v>-3.0248940000000002</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61">
+        <v>-4.986631</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1.5347E-2</v>
       </c>
@@ -1277,8 +1464,11 @@
       <c r="D62">
         <v>-3.0896379999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62">
+        <v>-5.6219890000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1.2503999999999999E-2</v>
       </c>
@@ -1291,8 +1481,11 @@
       <c r="D63">
         <v>-3.1776010000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63">
+        <v>-5.6705269999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>9.8809999999999992E-3</v>
       </c>
@@ -1305,8 +1498,11 @@
       <c r="D64">
         <v>-3.3092130000000002</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E64">
+        <v>-5.7253759999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>7.4799999999999997E-3</v>
       </c>
@@ -1319,8 +1515,11 @@
       <c r="D65">
         <v>-3.510059</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65">
+        <v>-5.8221249999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>5.3359999999999996E-3</v>
       </c>
@@ -1333,8 +1532,11 @@
       <c r="D66">
         <v>-3.8017780000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66">
+        <v>-6.0521440000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>3.5669999999999999E-3</v>
       </c>
@@ -1347,8 +1549,11 @@
       <c r="D67">
         <v>-3.8665349999999998</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E67">
+        <v>-6.4683169999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2.1819999999999999E-3</v>
       </c>
@@ -1361,8 +1566,11 @@
       <c r="D68">
         <v>-3.549979</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68">
+        <v>-6.3620049999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1.145E-3</v>
       </c>
@@ -1375,8 +1583,11 @@
       <c r="D69">
         <v>-3.01566</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E69">
+        <v>-5.8381860000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>4.2499999999999998E-4</v>
       </c>
@@ -1389,8 +1600,11 @@
       <c r="D70">
         <v>-2.5063870000000001</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E70">
+        <v>-5.39717</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1.7899999999999999E-4</v>
       </c>
@@ -1403,8 +1617,11 @@
       <c r="D71">
         <v>-2.467562</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E71">
+        <v>-5.5316049999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0</v>
       </c>
@@ -1417,8 +1634,11 @@
       <c r="D72">
         <v>-2.6473149999999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E72">
+        <v>-6.0630600000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>4.2400000000000001E-4</v>
       </c>
@@ -1431,8 +1651,11 @@
       <c r="D73">
         <v>-0.93111969999999999</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E73">
+        <v>-3.118687</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1.1199999999999999E-3</v>
       </c>
@@ -1445,8 +1668,11 @@
       <c r="D74">
         <v>-0.42600949999999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E74">
+        <v>-2.346088</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2.1299999999999999E-3</v>
       </c>
@@ -1459,8 +1685,11 @@
       <c r="D75">
         <v>4.8803520000000003E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E75">
+        <v>-1.540988</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>3.4770000000000001E-3</v>
       </c>
@@ -1473,8 +1702,11 @@
       <c r="D76">
         <v>0.41578340000000003</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E76">
+        <v>-0.84897460000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>5.195E-3</v>
       </c>
@@ -1487,8 +1719,11 @@
       <c r="D77">
         <v>0.69591270000000005</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E77">
+        <v>-0.225157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>7.2839999999999997E-3</v>
       </c>
@@ -1501,8 +1736,11 @@
       <c r="D78">
         <v>0.87269799999999997</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E78">
+        <v>0.26322309999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>9.6299999999999997E-3</v>
       </c>
@@ -1515,8 +1753,11 @@
       <c r="D79">
         <v>0.95841960000000004</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E79">
+        <v>0.55262469999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1.2192E-2</v>
       </c>
@@ -1529,8 +1770,11 @@
       <c r="D80">
         <v>0.99578319999999998</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E80">
+        <v>0.73619199999999996</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1.4966999999999999E-2</v>
       </c>
@@ -1543,8 +1787,11 @@
       <c r="D81">
         <v>1.0049170000000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E81">
+        <v>0.8532921</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1.7964000000000001E-2</v>
       </c>
@@ -1557,8 +1804,11 @@
       <c r="D82">
         <v>0.99638300000000002</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E82">
+        <v>0.92794759999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2.1191000000000002E-2</v>
       </c>
@@ -1571,8 +1821,11 @@
       <c r="D83">
         <v>0.97688339999999996</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E83">
+        <v>0.97259600000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2.4660000000000001E-2</v>
       </c>
@@ -1585,8 +1838,11 @@
       <c r="D84">
         <v>0.95057820000000004</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E84">
+        <v>0.99619239999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2.8375999999999998E-2</v>
       </c>
@@ -1599,8 +1855,11 @@
       <c r="D85">
         <v>0.91968539999999999</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E85">
+        <v>1.0046459999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>3.2363000000000003E-2</v>
       </c>
@@ -1613,8 +1872,11 @@
       <c r="D86">
         <v>0.88568349999999996</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E86">
+        <v>1.0022770000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>3.6645999999999998E-2</v>
       </c>
@@ -1627,8 +1889,11 @@
       <c r="D87">
         <v>0.84991139999999998</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E87">
+        <v>0.99171819999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>4.1257000000000002E-2</v>
       </c>
@@ -1641,8 +1906,11 @@
       <c r="D88">
         <v>0.81317729999999999</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E88">
+        <v>0.97510609999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>4.6232000000000002E-2</v>
       </c>
@@ -1655,8 +1923,11 @@
       <c r="D89">
         <v>0.77631360000000005</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E89">
+        <v>0.95376000000000005</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>5.1610000000000003E-2</v>
       </c>
@@ -1669,8 +1940,11 @@
       <c r="D90">
         <v>0.73927609999999999</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E90">
+        <v>0.92896619999999996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>5.7439999999999998E-2</v>
       </c>
@@ -1683,8 +1957,11 @@
       <c r="D91">
         <v>0.7017002</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E91">
+        <v>0.90102340000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>6.3784999999999994E-2</v>
       </c>
@@ -1697,8 +1974,11 @@
       <c r="D92">
         <v>0.66380490000000003</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E92">
+        <v>0.87064450000000004</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>7.0715E-2</v>
       </c>
@@ -1711,8 +1991,11 @@
       <c r="D93">
         <v>0.62597539999999996</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E93">
+        <v>0.83820099999999997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>7.8312000000000007E-2</v>
       </c>
@@ -1725,8 +2008,11 @@
       <c r="D94">
         <v>0.58768339999999997</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E94">
+        <v>0.80377149999999997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>8.6668999999999996E-2</v>
       </c>
@@ -1739,8 +2025,11 @@
       <c r="D95">
         <v>0.54839700000000002</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E95">
+        <v>0.76718090000000005</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>9.5885999999999999E-2</v>
       </c>
@@ -1753,8 +2042,11 @@
       <c r="D96">
         <v>0.50838380000000005</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E96">
+        <v>0.7286821</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>0.106063</v>
       </c>
@@ -1767,8 +2059,11 @@
       <c r="D97">
         <v>0.46827000000000002</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E97">
+        <v>0.68875439999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>0.117284</v>
       </c>
@@ -1781,8 +2076,11 @@
       <c r="D98">
         <v>0.4283517</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E98">
+        <v>0.64775400000000005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>0.12959899999999999</v>
       </c>
@@ -1795,8 +2093,11 @@
       <c r="D99">
         <v>0.38899070000000002</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E99">
+        <v>0.60614080000000004</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>0.143013</v>
       </c>
@@ -1809,8 +2110,11 @@
       <c r="D100">
         <v>0.35054249999999998</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E100">
+        <v>0.56442159999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>0.1575</v>
       </c>
@@ -1823,8 +2127,11 @@
       <c r="D101">
         <v>0.31281569999999997</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E101">
+        <v>0.52269920000000003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>0.173038</v>
       </c>
@@ -1837,8 +2144,11 @@
       <c r="D102">
         <v>0.2751596</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E102">
+        <v>0.48063869999999997</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>0.189579</v>
       </c>
@@ -1851,8 +2161,11 @@
       <c r="D103">
         <v>0.2385621</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E103">
+        <v>0.43910900000000003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>0.20702799999999999</v>
       </c>
@@ -1865,8 +2178,11 @@
       <c r="D104">
         <v>0.20356260000000001</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E104">
+        <v>0.39868419999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>0.22525600000000001</v>
       </c>
@@ -1879,8 +2195,11 @@
       <c r="D105">
         <v>0.17048479999999999</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E105">
+        <v>0.35976540000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>0.244118</v>
       </c>
@@ -1893,8 +2212,11 @@
       <c r="D106">
         <v>0.13904150000000001</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E106">
+        <v>0.3222545</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>0.26346900000000001</v>
       </c>
@@ -1907,8 +2229,11 @@
       <c r="D107">
         <v>0.1090212</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E107">
+        <v>0.2860663</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>0.28318100000000002</v>
       </c>
@@ -1921,8 +2246,11 @@
       <c r="D108">
         <v>8.0259689999999995E-2</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E108">
+        <v>0.25111450000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>0.30314400000000002</v>
       </c>
@@ -1935,8 +2263,11 @@
       <c r="D109">
         <v>5.281019E-2</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E109">
+        <v>0.21746879999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>0.323264</v>
       </c>
@@ -1949,8 +2280,11 @@
       <c r="D110">
         <v>2.6286219999999999E-2</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E110">
+        <v>0.18479290000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>0.34345799999999999</v>
       </c>
@@ -1963,8 +2297,11 @@
       <c r="D111">
         <v>1.063996E-3</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E111">
+        <v>0.1534008</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>0.36364600000000002</v>
       </c>
@@ -1977,8 +2314,11 @@
       <c r="D112">
         <v>-2.2719260000000002E-2</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E112">
+        <v>0.1233952</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>0.38377699999999998</v>
       </c>
@@ -1991,8 +2331,11 @@
       <c r="D113">
         <v>-4.4025069999999999E-2</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E113">
+        <v>9.566144E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>0.40388299999999999</v>
       </c>
@@ -2005,8 +2348,11 @@
       <c r="D114">
         <v>-5.9770480000000001E-2</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E114">
+        <v>7.2990150000000004E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>0.42407400000000001</v>
       </c>
@@ -2019,8 +2365,11 @@
       <c r="D115">
         <v>-6.7784410000000003E-2</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E115">
+        <v>5.7493229999999999E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>0.44444800000000001</v>
       </c>
@@ -2033,8 +2382,11 @@
       <c r="D116">
         <v>-7.0658700000000005E-2</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E116">
+        <v>4.6883769999999998E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>0.46503299999999997</v>
       </c>
@@ -2047,8 +2399,11 @@
       <c r="D117">
         <v>-7.1028469999999996E-2</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E117">
+        <v>3.8691429999999999E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>0.48580600000000002</v>
       </c>
@@ -2061,8 +2416,11 @@
       <c r="D118">
         <v>-6.9328340000000002E-2</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E118">
+        <v>3.2544389999999999E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>0.50675000000000003</v>
       </c>
@@ -2075,8 +2433,11 @@
       <c r="D119">
         <v>-6.5893320000000005E-2</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E119">
+        <v>2.817364E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>0.52786999999999995</v>
       </c>
@@ -2089,8 +2450,11 @@
       <c r="D120">
         <v>-6.0923850000000002E-2</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E120">
+        <v>2.5422119999999999E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>0.54916299999999996</v>
       </c>
@@ -2103,8 +2467,11 @@
       <c r="D121">
         <v>-5.4954429999999999E-2</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E121">
+        <v>2.3749820000000001E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>0.57060999999999995</v>
       </c>
@@ -2117,8 +2484,11 @@
       <c r="D122">
         <v>-4.8214260000000002E-2</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E122">
+        <v>2.290675E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>0.59219100000000002</v>
       </c>
@@ -2131,8 +2501,11 @@
       <c r="D123">
         <v>-4.0708090000000002E-2</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E123">
+        <v>2.2870479999999999E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>0.61390100000000003</v>
       </c>
@@ -2145,8 +2518,11 @@
       <c r="D124">
         <v>-3.2159460000000001E-2</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E124">
+        <v>2.3959419999999999E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>0.63575099999999996</v>
       </c>
@@ -2159,8 +2535,11 @@
       <c r="D125">
         <v>-2.263766E-2</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E125">
+        <v>2.6109029999999998E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>0.65774900000000003</v>
       </c>
@@ -2173,8 +2552,11 @@
       <c r="D126">
         <v>-1.2209970000000001E-2</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E126">
+        <v>2.9299269999999999E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>0.67989999999999995</v>
       </c>
@@ -2187,8 +2569,11 @@
       <c r="D127">
         <v>-1.189837E-3</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E127">
+        <v>3.3207769999999998E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>0.70221999999999996</v>
       </c>
@@ -2201,8 +2586,11 @@
       <c r="D128">
         <v>1.039023E-2</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E128">
+        <v>3.8012110000000002E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>0.72473699999999996</v>
       </c>
@@ -2215,8 +2603,11 @@
       <c r="D129">
         <v>2.205383E-2</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E129">
+        <v>4.328357E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>0.74745700000000004</v>
       </c>
@@ -2229,8 +2620,11 @@
       <c r="D130">
         <v>3.3301829999999998E-2</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E130">
+        <v>4.8400270000000002E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>0.77032599999999996</v>
       </c>
@@ -2243,8 +2637,11 @@
       <c r="D131">
         <v>4.3605190000000002E-2</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E131">
+        <v>5.2026469999999998E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>0.79325999999999997</v>
       </c>
@@ -2257,8 +2654,11 @@
       <c r="D132">
         <v>5.31622E-2</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E132">
+        <v>5.4322750000000003E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>0.81619200000000003</v>
       </c>
@@ -2271,8 +2671,11 @@
       <c r="D133">
         <v>6.209013E-2</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E133">
+        <v>5.5318550000000001E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>0.83906999999999998</v>
       </c>
@@ -2285,8 +2688,11 @@
       <c r="D134">
         <v>7.0519760000000001E-2</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E134">
+        <v>5.5190349999999999E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>0.86182099999999995</v>
       </c>
@@ -2299,8 +2705,11 @@
       <c r="D135">
         <v>7.8539049999999999E-2</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E135">
+        <v>5.4117869999999998E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>0.88434699999999999</v>
       </c>
@@ -2313,8 +2722,11 @@
       <c r="D136">
         <v>8.615457E-2</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E136">
+        <v>5.199848E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>0.90654000000000001</v>
       </c>
@@ -2327,8 +2739,11 @@
       <c r="D137">
         <v>9.3371689999999993E-2</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E137">
+        <v>4.891276E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>0.92826500000000001</v>
       </c>
@@ -2341,8 +2756,11 @@
       <c r="D138">
         <v>0.1001227</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E138">
+        <v>4.451426E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>0.949291</v>
       </c>
@@ -2355,8 +2773,11 @@
       <c r="D139">
         <v>0.10633049999999999</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E139">
+        <v>3.8605899999999999E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>0.96932499999999999</v>
       </c>
@@ -2369,8 +2790,11 @@
       <c r="D140">
         <v>0.1119166</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E140">
+        <v>3.0265340000000002E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>0.98815200000000003</v>
       </c>
@@ -2383,8 +2807,11 @@
       <c r="D141">
         <v>0.1317461</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E141">
+        <v>1.8521550000000001E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1</v>
       </c>
@@ -2396,6 +2823,9 @@
       </c>
       <c r="D142">
         <v>0.17082040000000001</v>
+      </c>
+      <c r="E142">
+        <v>-4.9601669999999997E-4</v>
       </c>
     </row>
   </sheetData>
